--- a/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20320,7 +20321,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -20352,7 +20352,6 @@
           <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
           <t>80.29</t>
@@ -20368,6 +20367,6254 @@
       </c>
       <c r="H264" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>384.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32.8098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.6014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.3399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>177.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>109.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2258</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8572</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7351</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2859</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1304</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6956</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6391</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6335</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5650</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>58.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5177</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4663</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4582</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4166</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3526</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1480</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0714</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0465</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0180</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8984</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8423</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8224</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7604</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7117</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5525</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3630</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3175</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160612</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华丰收债券</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160621</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券(LOF)A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>206008</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华丰盛债券</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009653</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006057</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009654</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001604</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浙商汇金转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005793</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华富可转债债券</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26620,4 +26621,6784 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H178"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>30.8451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.9803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>237.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.7223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>136.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.5142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.9565</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>111.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.5944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3713</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.2089</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5137</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5883</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5270</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4837</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4747</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4378</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4176</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3704</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2846</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2393</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0607</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9922</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9793</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8919</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8065</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7327</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7160</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7059</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6861</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5849</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5700</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4065</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000973</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华增盈回报债券</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008251</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004829</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>北信瑞丰兴瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008252</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>68.59</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33401,4 +33402,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>177</v>
+      </c>
+      <c r="D2" t="n">
+        <v>140.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>163</v>
+      </c>
+      <c r="D3" t="n">
+        <v>134.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>263</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>259</v>
+      </c>
+      <c r="D5" t="n">
+        <v>244.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33410,7 +33411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33421,17 +33422,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33441,14 +33462,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>140.01</v>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -33457,14 +33500,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>163</v>
-      </c>
-      <c r="D3" t="n">
-        <v>134.31</v>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>243.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.0230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -33473,14 +33538,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>263</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.46</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -33489,13 +33576,6307 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.6861</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6955</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8385</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3904</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0961</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4373</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3766</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3533</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1573</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0466</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0378</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0191</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9834</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9638</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9415</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7445</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>47.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4400</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3991</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008251</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009244</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008252</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003025</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>新华红利回报混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009245</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>166</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>140.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>163</v>
+      </c>
+      <c r="D4" t="n">
+        <v>134.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>263</v>
+      </c>
+      <c r="D5" t="n">
+        <v>190.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>259</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>244.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55741,7 +55742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55752,17 +55753,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -55772,14 +55793,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>419</v>
-      </c>
-      <c r="D2" t="n">
-        <v>203.16</v>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>241.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -55788,14 +55831,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>166</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100.06</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -55804,14 +55869,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>177</v>
-      </c>
-      <c r="D4" t="n">
-        <v>140.01</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>121.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.3065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -55820,14 +55907,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>163</v>
-      </c>
-      <c r="D5" t="n">
-        <v>134.31</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>146.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -55836,14 +55945,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>263</v>
-      </c>
-      <c r="D6" t="n">
-        <v>190.46</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>134.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6883</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -55852,13 +55983,6402 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>134.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>128.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4863</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.3131</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.4240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0761</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7824</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3555</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3461</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9447</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8510</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7542</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6084</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4422</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3947</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3698</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2753</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9865</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9771</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8507</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8262</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8017</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7912</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6968</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6783</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6781</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6442</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6141</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>44.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014919</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.65</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014920</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧生益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>26.93</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>96.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015038</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>天弘MSCI中国A50互联互通指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002792</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008479</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城泰申回报混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010478</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>景顺长城泰祥回报混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001194</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010901</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中欧生益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001407</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>015037</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天弘MSCI中国A50互联互通指数A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002793</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>170</v>
+      </c>
+      <c r="D2" t="n">
+        <v>112.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>419</v>
+      </c>
+      <c r="D3" t="n">
+        <v>203.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>166</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>177</v>
+      </c>
+      <c r="D5" t="n">
+        <v>140.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>163</v>
+      </c>
+      <c r="D6" t="n">
+        <v>134.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>263</v>
+      </c>
+      <c r="D7" t="n">
+        <v>190.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>259</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>244.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601899-紫金矿业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D2" t="n">
-        <v>112.26</v>
+        <v>82.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>419</v>
+        <v>170</v>
       </c>
       <c r="D3" t="n">
-        <v>203.16</v>
+        <v>112.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="D4" t="n">
-        <v>100.06</v>
+        <v>203.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D5" t="n">
-        <v>140.01</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D6" t="n">
-        <v>134.31</v>
+        <v>140.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="D7" t="n">
-        <v>190.46</v>
+        <v>134.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>263</v>
+      </c>
+      <c r="D8" t="n">
+        <v>190.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>259</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>244.38</v>
       </c>
     </row>
@@ -600,6 +617,7848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H206"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>匯添富價值精選混合型證券投資基金 O</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7977</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>121.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富MSCI中国A50互联互通ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>563000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达MSCI中国A50互联互通ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1495</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1265</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9955</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6717</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6717</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159601</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏MSCI中国A50互联互通ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6433</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5884</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2884</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562990</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1810</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0842</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0686</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0591</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0539</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0184</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8621</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159639</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7879</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7878</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7841</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7671</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银新材料新能源股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7638</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>561190</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7472</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6883</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6830</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6647</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159602</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方MSCI中国A50互联互通ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6209</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>560550</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5041</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159641</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014919</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159640</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>560060</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012826</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014920</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159642</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富荣福银混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015038</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>天弘MSCI中国A50互联互通指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011803</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011804</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>014360</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>红塔红土稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012827</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009351</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015037</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>天弘MSCI中国A50互联互通指数A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014361</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>红塔红土稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>009352</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>富荣福银混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7102,7 +14961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23067,7 +30926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29431,7 +37290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36211,7 +44070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -42459,7 +50318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -52495,7 +60354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
